--- a/Bunderbuurten veghel model/_mvlv_transformers.xlsx
+++ b/Bunderbuurten veghel model/_mvlv_transformers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Buurtmodel-Bunderbuurten-Veghel\Bunderbuurten veghel model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898C74BA-0D04-4598-A7E8-38F6F7CC5690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78544352-974A-4E0F-B49C-6DF9FB318FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22140" yWindow="1560" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mvlv_transformers" sheetId="1" r:id="rId1"/>
@@ -66,12 +66,6 @@
     <t>innetwork</t>
   </si>
   <si>
-    <t>xcoord</t>
-  </si>
-  <si>
-    <t>ycoord</t>
-  </si>
-  <si>
     <t>laagspanning</t>
   </si>
   <si>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>fid</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{C72DB720-FE79-40AD-9C63-A4702037122B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,26 +565,26 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="4" max="8" width="15"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="1028" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -623,13 +623,13 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>8969267</v>
       </c>
@@ -640,50 +640,50 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>RIGHT(H2,LEN(H2)-22)</f>
         <v>8969267</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P2">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="Q2">
         <v>5.5640000000000001</v>
       </c>
-      <c r="Q2">
-        <v>51.621000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>8969463</v>
       </c>
@@ -694,50 +694,50 @@
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" ref="I3:I18" si="0">RIGHT(H3,LEN(H3)-22)</f>
         <v>8969463</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P3">
+        <v>51.624000000000002</v>
+      </c>
+      <c r="Q3">
         <v>5.5529999999999999</v>
       </c>
-      <c r="Q3">
-        <v>51.624000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>8969197</v>
       </c>
@@ -748,50 +748,50 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969197</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P4">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="Q4">
         <v>5.55</v>
       </c>
-      <c r="Q4">
-        <v>51.621000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>8969461</v>
       </c>
@@ -802,50 +802,50 @@
         <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969461</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P5">
+        <v>51.624000000000002</v>
+      </c>
+      <c r="Q5">
         <v>5.5490000000000004</v>
       </c>
-      <c r="Q5">
-        <v>51.624000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>8969465</v>
       </c>
@@ -856,50 +856,50 @@
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969465</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P6">
+        <v>51.622</v>
+      </c>
+      <c r="Q6">
         <v>5.5519999999999996</v>
       </c>
-      <c r="Q6">
-        <v>51.622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>111906538</v>
       </c>
@@ -910,50 +910,50 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>111906538</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="Q7">
         <v>5.5620000000000003</v>
       </c>
-      <c r="Q7">
-        <v>51.621000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8969487</v>
       </c>
@@ -964,50 +964,50 @@
         <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969487</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P8">
+        <v>51.624000000000002</v>
+      </c>
+      <c r="Q8">
         <v>5.556</v>
       </c>
-      <c r="Q8">
-        <v>51.624000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8969107</v>
       </c>
@@ -1018,50 +1018,50 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969107</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P9">
+        <v>51.627000000000002</v>
+      </c>
+      <c r="Q9">
         <v>5.5490000000000004</v>
       </c>
-      <c r="Q9">
-        <v>51.627000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8969351</v>
       </c>
@@ -1072,50 +1072,50 @@
         <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969351</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10">
+        <v>51.618000000000002</v>
+      </c>
+      <c r="Q10">
         <v>5.5590000000000002</v>
       </c>
-      <c r="Q10">
-        <v>51.618000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8969439</v>
       </c>
@@ -1126,50 +1126,50 @@
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969439</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P11">
+        <v>51.628</v>
+      </c>
+      <c r="Q11">
         <v>5.5570000000000004</v>
       </c>
-      <c r="Q11">
-        <v>51.628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8969445</v>
       </c>
@@ -1180,50 +1180,50 @@
         <v>400</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969445</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P12">
+        <v>51.625999999999998</v>
+      </c>
+      <c r="Q12">
         <v>5.548</v>
       </c>
-      <c r="Q12">
-        <v>51.625999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>8969449</v>
       </c>
@@ -1234,50 +1234,50 @@
         <v>400</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969449</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P13">
+        <v>51.627000000000002</v>
+      </c>
+      <c r="Q13">
         <v>5.5529999999999999</v>
       </c>
-      <c r="Q13">
-        <v>51.627000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>8969505</v>
       </c>
@@ -1288,50 +1288,50 @@
         <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969505</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P14">
+        <v>51.62</v>
+      </c>
+      <c r="Q14">
         <v>5.5549999999999997</v>
       </c>
-      <c r="Q14">
-        <v>51.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>8969513</v>
       </c>
@@ -1342,50 +1342,50 @@
         <v>400</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969513</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P15">
+        <v>51.621000000000002</v>
+      </c>
+      <c r="Q15">
         <v>5.5529999999999999</v>
       </c>
-      <c r="Q15">
-        <v>51.621000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>8969529</v>
       </c>
@@ -1396,50 +1396,50 @@
         <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969529</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P16">
+        <v>51.622999999999998</v>
+      </c>
+      <c r="Q16">
         <v>5.5620000000000003</v>
       </c>
-      <c r="Q16">
-        <v>51.622999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>8969535</v>
       </c>
@@ -1450,50 +1450,50 @@
         <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969535</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P17">
+        <v>51.622</v>
+      </c>
+      <c r="Q17">
         <v>5.5570000000000004</v>
       </c>
-      <c r="Q17">
-        <v>51.622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>8969545</v>
       </c>
@@ -1504,47 +1504,47 @@
         <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>8969545</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P18">
+        <v>51.62</v>
+      </c>
+      <c r="Q18">
         <v>5.5609999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>51.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bunderbuurten veghel model/_mvlv_transformers.xlsx
+++ b/Bunderbuurten veghel model/_mvlv_transformers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Buurtmodel-Bunderbuurten-Veghel\Bunderbuurten veghel model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78544352-974A-4E0F-B49C-6DF9FB318FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CDD1BA-566C-49B5-934F-1CE187B8A59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22140" yWindow="1560" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mvlv_transformers" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -623,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
         <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -677,10 +677,10 @@
         <v>11</v>
       </c>
       <c r="P2">
-        <v>51.621000000000002</v>
+        <v>5.5643530008095192</v>
       </c>
       <c r="Q2">
-        <v>5.5640000000000001</v>
+        <v>51.621006743843317</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -731,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="P3">
-        <v>51.624000000000002</v>
+        <v>5.5530209761477183</v>
       </c>
       <c r="Q3">
-        <v>5.5529999999999999</v>
+        <v>51.624337024457091</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>11</v>
       </c>
       <c r="P4">
-        <v>51.621000000000002</v>
+        <v>5.5504170565747302</v>
       </c>
       <c r="Q4">
-        <v>5.55</v>
+        <v>51.62112197421213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -839,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="P5">
-        <v>51.624000000000002</v>
+        <v>5.5494637429464388</v>
       </c>
       <c r="Q5">
-        <v>5.5490000000000004</v>
+        <v>51.623510017791183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -893,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="P6">
-        <v>51.622</v>
+        <v>5.5516757109692731</v>
       </c>
       <c r="Q6">
-        <v>5.5519999999999996</v>
+        <v>51.622488359419222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -947,10 +947,10 @@
         <v>11</v>
       </c>
       <c r="P7">
-        <v>51.621000000000002</v>
+        <v>5.5621971334594589</v>
       </c>
       <c r="Q7">
-        <v>5.5620000000000003</v>
+        <v>51.621278156696327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1001,10 +1001,10 @@
         <v>11</v>
       </c>
       <c r="P8">
-        <v>51.624000000000002</v>
+        <v>5.5556037890367023</v>
       </c>
       <c r="Q8">
-        <v>5.556</v>
+        <v>51.624107718459797</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1055,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="P9">
-        <v>51.627000000000002</v>
+        <v>5.5492819656122689</v>
       </c>
       <c r="Q9">
-        <v>5.5490000000000004</v>
+        <v>51.626746665451911</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="P10">
-        <v>51.618000000000002</v>
+        <v>5.5586866183863224</v>
       </c>
       <c r="Q10">
-        <v>5.5590000000000002</v>
+        <v>51.618183633872547</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1163,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="P11">
-        <v>51.628</v>
+        <v>5.5566792520004826</v>
       </c>
       <c r="Q11">
-        <v>5.5570000000000004</v>
+        <v>51.627937000342328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1217,10 +1217,10 @@
         <v>11</v>
       </c>
       <c r="P12">
-        <v>51.625999999999998</v>
+        <v>5.5482485553741601</v>
       </c>
       <c r="Q12">
-        <v>5.548</v>
+        <v>51.626404317432439</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1271,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="P13">
-        <v>51.627000000000002</v>
+        <v>5.5530852770255033</v>
       </c>
       <c r="Q13">
-        <v>5.5529999999999999</v>
+        <v>51.626830630646523</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1325,10 +1325,10 @@
         <v>11</v>
       </c>
       <c r="P14">
-        <v>51.62</v>
+        <v>5.5548837969885767</v>
       </c>
       <c r="Q14">
-        <v>5.5549999999999997</v>
+        <v>51.619672958373222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1379,10 +1379,10 @@
         <v>11</v>
       </c>
       <c r="P15">
-        <v>51.621000000000002</v>
+        <v>5.5534403477137237</v>
       </c>
       <c r="Q15">
-        <v>5.5529999999999999</v>
+        <v>51.621052806352218</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>11</v>
       </c>
       <c r="P16">
-        <v>51.622999999999998</v>
+        <v>5.5620234232032573</v>
       </c>
       <c r="Q16">
-        <v>5.5620000000000003</v>
+        <v>51.623321770056393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1487,10 +1487,10 @@
         <v>11</v>
       </c>
       <c r="P17">
-        <v>51.622</v>
+        <v>5.5572400179952099</v>
       </c>
       <c r="Q17">
-        <v>5.5570000000000004</v>
+        <v>51.621776591367023</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1541,10 +1541,10 @@
         <v>11</v>
       </c>
       <c r="P18">
-        <v>51.62</v>
+        <v>5.5607552792176378</v>
       </c>
       <c r="Q18">
-        <v>5.5609999999999999</v>
+        <v>51.619868274254138</v>
       </c>
     </row>
   </sheetData>
